--- a/BloodstreamAPI/testData/thresholdConfig.xlsx
+++ b/BloodstreamAPI/testData/thresholdConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661F754-E45E-4AC4-9F23-52B2262D191D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442DA60-64DB-4C03-A4FB-50E69946D628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThresholdConfig_GET" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>EndPoint</t>
   </si>
@@ -37,12 +37,15 @@
   <si>
     <t>/configuration/system/instrumentThreshold</t>
   </si>
+  <si>
+    <t>Assert409</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,12 +59,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -98,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -112,7 +109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -409,7 +405,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,16 +416,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
@@ -454,14 +450,14 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
@@ -488,14 +484,14 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3"/>
@@ -525,10 +521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ADE404-5DD1-4B90-8772-8949891E0469}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,16 +537,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
@@ -574,30 +570,23 @@
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -608,41 +597,59 @@
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
